--- a/results/I3_N5_M3_T45_C100_DepCentral_s0_P5_res.xlsx
+++ b/results/I3_N5_M3_T45_C100_DepCentral_s0_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1878.349107494151</v>
+        <v>1816.399348266325</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006999969482421875</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.52910749414057</v>
+        <v>17.05768396753712</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.773686034148751</v>
+        <v>9.648595488791731</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.773686034148751</v>
+        <v>2.990259787578902</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1165.91000000001</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>690.9099999999999</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,56 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -722,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -733,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -744,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -766,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -777,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -788,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -799,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -846,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -857,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -879,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -890,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -912,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -923,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -973,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.276726247163708</v>
+        <v>36.72863473297091</v>
       </c>
     </row>
     <row r="4">
@@ -981,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>40.61498263299222</v>
       </c>
     </row>
     <row r="5">
@@ -989,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>32.37739353073907</v>
       </c>
     </row>
     <row r="6">
@@ -1005,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9.845188035790088</v>
+        <v>43.79947631331252</v>
       </c>
     </row>
     <row r="8">
@@ -1013,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>37.72327375283629</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -1021,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>32.12249852767911</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -1029,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>35.15481196420991</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1075,10 +1031,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1089,10 +1045,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1103,10 +1059,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1117,10 +1073,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1131,10 +1087,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1145,13 +1101,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1159,13 +1115,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1173,13 +1129,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1187,15 +1143,127 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1298,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>52.86000000000065</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8">
@@ -1309,7 +1377,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>48.83000000000065</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9">
@@ -1320,7 +1388,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>46.6</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10">
@@ -1331,7 +1399,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>51.34000000000066</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11">
@@ -1342,7 +1410,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>49.96000000000065</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12">
@@ -1353,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>154.2350000000014</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13">
@@ -1364,7 +1432,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>151.8700000000015</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14">
@@ -1375,7 +1443,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>150.5250000000015</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15">
@@ -1386,7 +1454,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>156.7750000000015</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16">
@@ -1397,7 +1465,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>155.6650000000014</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17">
@@ -1408,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>99.54499999999936</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
@@ -1419,7 +1487,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>92.51499999999935</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
@@ -1430,7 +1498,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0699999999993</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
@@ -1441,7 +1509,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>90.09499999999935</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1452,7 +1520,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.7799999999993</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
@@ -1463,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>165.1699999999998</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -1474,7 +1542,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>152.8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -1485,7 +1553,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>167.8399999999998</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -1496,7 +1564,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>164.4249999999998</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
@@ -1507,7 +1575,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>160.8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
@@ -1518,7 +1586,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>61.37999999999978</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28">
@@ -1529,7 +1597,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>61.35999999999978</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29">
@@ -1540,7 +1608,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>65.61999999999978</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30">
@@ -1551,7 +1619,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>66.05999999999977</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31">
@@ -1562,7 +1630,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>64.25999999999978</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32">
@@ -1573,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>154.2350000000014</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33">
@@ -1584,7 +1652,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>151.8700000000015</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34">
@@ -1595,7 +1663,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>150.5250000000015</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35">
@@ -1606,7 +1674,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>156.7750000000015</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36">
@@ -1617,7 +1685,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>155.6650000000014</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37">
@@ -1628,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>99.54499999999936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1639,7 +1707,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>92.51499999999935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1650,7 +1718,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>100.0699999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1661,7 +1729,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>90.09499999999935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1672,7 +1740,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>102.7799999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1683,7 +1751,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>165.1699999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1694,7 +1762,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>152.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1705,7 +1773,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>167.8399999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1716,7 +1784,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>164.4249999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1727,7 +1795,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>160.8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1774,7 +1842,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>54.23500000000143</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3">
@@ -1785,7 +1853,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>51.87000000000145</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4">
@@ -1796,7 +1864,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>50.52500000000146</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5">
@@ -1807,7 +1875,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>56.77500000000146</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6">
@@ -1818,7 +1886,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>55.66500000000144</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7">
@@ -1851,7 +1919,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06999999999934658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1873,7 +1941,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>2.779999999999347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1884,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>65.16999999999979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1895,7 +1963,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>52.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1906,7 +1974,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>67.83999999999978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1917,7 +1985,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>64.42499999999978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1928,7 +1996,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>60.8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1975,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>15.315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1986,7 +2054,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>27.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1997,7 +2065,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>29.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2008,7 +2076,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>25.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2019,7 +2087,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>25.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2030,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>10.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2041,7 +2109,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>19.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2052,7 +2120,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2063,7 +2131,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>19.775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2074,7 +2142,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>16.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2140,7 +2208,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>4.725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2151,7 +2219,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>5.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2162,7 +2230,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>4.425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2173,7 +2241,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2184,7 +2252,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2195,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2206,7 +2274,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2217,7 +2285,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>25.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2228,7 +2296,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2239,7 +2307,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.155</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2253,7 +2321,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2280,7 +2348,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2291,7 +2359,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2302,7 +2370,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2313,7 +2381,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2324,7 +2392,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2335,10 +2403,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2346,10 +2414,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2357,10 +2425,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2368,10 +2436,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2379,10 +2447,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2390,10 +2458,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2401,12 +2469,67 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="n">
         <v>1</v>
       </c>
     </row>
